--- a/FinalReportGroup8/TableOfContributions_DataProtocols (2).xlsx
+++ b/FinalReportGroup8/TableOfContributions_DataProtocols (2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\likit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\localuser\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01B6B23-4D4A-479C-A055-515DE772A0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AF4D1F-1A3E-4C33-9119-1A999B7F6F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8E32BE12-6B46-47CB-8C96-7A74BD639EF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E32BE12-6B46-47CB-8C96-7A74BD639EF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Contributions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>Contributor</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>NO! The paper does not provide a detailed analysis of the potential implications of using different blockchain platforms for voting in Turkey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No ,It did not explain in this paper that it can be done with another </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blockchain technology's decentralised architecture and immutability attribute make it revolutionary in various domains, including electronic voting systems, making voting fair, transparent, and independently verifiable. Blockchain technology, a distributed network of interconnected nodes, offers anonymity and reliability in e-voting, with no single authority controlling the network's transaction history.</t>
   </si>
 </sst>
 </file>
@@ -340,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -355,10 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -682,18 +684,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB0E51C-A996-4C4D-B134-2635A9357BE0}">
   <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="134.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="134.77734375" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -704,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -715,17 +717,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="360" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>57</v>
       </c>
@@ -736,7 +738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -747,7 +749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -758,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -769,17 +771,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -790,37 +792,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -831,17 +833,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
@@ -854,37 +856,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87228A0-10BB-453E-B333-0080EB5FEA89}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="57.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
     <col min="4" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="7" width="62.54296875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="62.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -903,274 +899,223 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="1">
         <v>2022</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
         <v>2023</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="1">
         <v>2023</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="1">
         <v>2023</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="1">
         <v>2023</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="1">
         <v>2023</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="1">
         <v>2023</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="1">
         <v>2019</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
+      <c r="C18" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D18" s="1">
         <v>2023</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
